--- a/documentacao/Tempo.xlsx
+++ b/documentacao/Tempo.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heloiza/Desktop/UFMG/ED/Códigos/metodos-ordenacao/documentacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD1879F-DCD7-484B-87B6-D899BA54EAA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EEB9D2-A5A4-384A-940D-DFAE24AE69D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{7CAB6B71-BF54-0D49-9AB0-E778D22D340F}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="19860" activeTab="2" xr2:uid="{7CAB6B71-BF54-0D49-9AB0-E778D22D340F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arquivo Crescente" sheetId="2" r:id="rId1"/>
+    <sheet name="Arquivo Decrescente" sheetId="3" r:id="rId2"/>
+    <sheet name="Arquivo Aleatório" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="12">
   <si>
     <t>Tamanho do arquivo de entrada</t>
   </si>
@@ -51,20 +53,35 @@
     <t>Tempo</t>
   </si>
   <si>
-    <t>Merge Sort</t>
-  </si>
-  <si>
     <t>Quick Sort</t>
   </si>
   <si>
     <t>Entrada</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort Melhorado</t>
+  </si>
+  <si>
+    <t>Shell</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Linhas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,8 +97,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,18 +134,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -136,11 +186,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,9 +275,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,7 +420,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -318,22 +465,31 @@
             <c:numRef>
               <c:f>'Arquivo Crescente'!$F$2:$F$9</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0" formatCode="0.00">
-                  <c:v>7.0000000000000007E-2</c:v>
+                <c:pt idx="0">
+                  <c:v>0.20166666666666666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2E-2</c:v>
+                  <c:v>0.24399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7000000000000001E-2</c:v>
+                  <c:v>0.26733333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3000000000000002E-2</c:v>
+                  <c:v>0.44933333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>1.0153333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.654666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.025999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>310.10766666666672</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,14 +509,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Merge Sort</c:v>
+                  <c:v>Heap Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -405,8 +561,32 @@
             <c:numRef>
               <c:f>'Arquivo Crescente'!$F$10:$F$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.18800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22866666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24933333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25033333333333335</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28533333333333338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33533333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38066666666666671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54300000000000004</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -432,7 +612,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -444,14 +624,164 @@
             <c:numRef>
               <c:f>'Arquivo Crescente'!$F$18:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-AD85-9146-9081-4F34D1729DEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arquivo Crescente'!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort Melhorado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arquivo Crescente'!$F$26:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5844-4A42-9942-A02B9B997AB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arquivo Crescente'!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arquivo Crescente'!$F$34:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.22766666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25366666666666665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25766666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26933333333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36366666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45633333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5844-4A42-9942-A02B9B997AB1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -586,7 +916,6 @@
         <c:axId val="1782483744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="350"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -667,8 +996,1596 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1782367600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Tempo de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Execução - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Arquivo Decrescente</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arquivo Decrescente'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arquivo Decrescente'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arquivo Decrescente'!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.21266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22933333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25833333333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34966666666666663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40133333333333338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AD8-414B-BCD1-E9F839FD33BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arquivo Decrescente'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arquivo Decrescente'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arquivo Decrescente'!$F$10:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.20133333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23033333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42166666666666669</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51833333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AD8-414B-BCD1-E9F839FD33BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arquivo Decrescente'!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arquivo Decrescente'!$F$18:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7AD8-414B-BCD1-E9F839FD33BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arquivo Decrescente'!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort Melhorado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arquivo Decrescente'!$F$26:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7AD8-414B-BCD1-E9F839FD33BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arquivo Decrescente'!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arquivo Decrescente'!$F$34:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25933333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24233333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24266666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45966666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7AD8-414B-BCD1-E9F839FD33BF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1782367600"/>
+        <c:axId val="1782483744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1782367600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Tamanho do arquivo de entrada</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38482949466460942"/>
+              <c:y val="0.86791883840288708"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1782483744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1782483744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Tempo de execução em segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.4934432371674782E-3"/>
+              <c:y val="0.27397272792222788"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1782367600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Tempo de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Execução - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Arquivo Aleatório</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arquivo Aleatório'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arquivo Aleatório'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arquivo Aleatório'!$F$2:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.25433333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2283333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24433333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.679666666666662</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160.24766666666665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FFB-4942-AEE4-5AC697CA5506}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arquivo Aleatório'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Arquivo Aleatório'!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arquivo Aleatório'!$F$10:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.20633333333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23633333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29533333333333339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.40199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9FFB-4942-AEE4-5AC697CA5506}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arquivo Aleatório'!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arquivo Aleatório'!$F$18:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9FFB-4942-AEE4-5AC697CA5506}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arquivo Aleatório'!$D$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quick Sort Melhorado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arquivo Aleatório'!$F$26:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9FFB-4942-AEE4-5AC697CA5506}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Arquivo Aleatório'!$D$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Arquivo Aleatório'!$F$34:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.21099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24466666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24033333333333332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33733333333333332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9FFB-4942-AEE4-5AC697CA5506}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="1782367600"/>
+        <c:axId val="1782483744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1782367600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Tamanho do arquivo de entrada</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.38482949466460942"/>
+              <c:y val="0.86791883840288708"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1782483744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1782483744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Tempo de execução em segundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.4934432371674782E-3"/>
+              <c:y val="0.27397272792222788"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -786,9 +2703,92 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1325,6 +3325,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1346,6 +4352,92 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6486FA95-823F-8649-BC02-117831464505}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1057</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>396875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>264582</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18EE6AD3-C83D-8147-A3E9-720D4DAFC42D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1057</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>396875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>264582</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F754B558-DD7F-E64C-8120-61BE6680FE88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,23 +4757,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C29BA9D-2A81-0D4C-9A7A-A9ED6CC55101}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:AI41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="3.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" customWidth="1"/>
+    <col min="20" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" customWidth="1"/>
+    <col min="24" max="24" width="2" customWidth="1"/>
+    <col min="26" max="28" width="7.1640625" customWidth="1"/>
+    <col min="30" max="30" width="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1693,13 +4791,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>100</v>
       </c>
@@ -1712,11 +4810,33 @@
       <c r="E2" s="3">
         <v>100</v>
       </c>
-      <c r="F2" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="6">
+        <f>W4</f>
+        <v>0.20166666666666666</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="Y2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="17"/>
+      <c r="AE2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>500</v>
       </c>
@@ -1729,11 +4849,57 @@
       <c r="E3" s="3">
         <v>500</v>
       </c>
-      <c r="F3" s="8">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="6">
+        <f>W5</f>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="11">
+        <v>1</v>
+      </c>
+      <c r="U3" s="11">
+        <v>2</v>
+      </c>
+      <c r="V3" s="11">
+        <v>3</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1000</v>
       </c>
@@ -1746,11 +4912,54 @@
       <c r="E4" s="3">
         <v>1000</v>
       </c>
-      <c r="F4" s="8">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="6">
+        <f>W6</f>
+        <v>0.26733333333333337</v>
+      </c>
+      <c r="S4" s="12">
+        <v>100</v>
+      </c>
+      <c r="T4" s="13">
+        <v>0.216</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0.185</v>
+      </c>
+      <c r="V4" s="13">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="W4" s="19">
+        <f>SUM(T4:V4)/3</f>
+        <v>0.20166666666666666</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="21">
+        <f>SUM(Z4:AB4)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>100</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="AG4" s="13">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AH4" s="13">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="AI4" s="20">
+        <f>SUM(AF4:AH4)/3</f>
+        <v>0.22766666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>5000</v>
       </c>
@@ -1763,11 +4972,54 @@
       <c r="E5" s="3">
         <v>5000</v>
       </c>
-      <c r="F5" s="8">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="6">
+        <f>W7</f>
+        <v>0.44933333333333336</v>
+      </c>
+      <c r="S5" s="3">
+        <v>500</v>
+      </c>
+      <c r="T5" s="8">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="U5" s="8">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="W5" s="19">
+        <f>SUM(T5:V5)/3</f>
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>500</v>
+      </c>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="21">
+        <f>SUM(Z5:AB5)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>0.252</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AI5" s="20">
+        <f>SUM(AF5:AH5)/3</f>
+        <v>0.25366666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>10000</v>
       </c>
@@ -1780,11 +5032,54 @@
       <c r="E6" s="3">
         <v>10000</v>
       </c>
-      <c r="F6" s="8">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="6">
+        <f>W8</f>
+        <v>1.0153333333333332</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="W6" s="19">
+        <f>SUM(T6:V6)/3</f>
+        <v>0.26733333333333337</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="21">
+        <f>SUM(Z6:AB6)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>0.251</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>0.249</v>
+      </c>
+      <c r="AI6" s="20">
+        <f>SUM(AF6:AH6)/3</f>
+        <v>0.25766666666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>50000</v>
       </c>
@@ -1797,9 +5092,54 @@
       <c r="E7" s="3">
         <v>50000</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="6">
+        <f>W9</f>
+        <v>19.654666666666667</v>
+      </c>
+      <c r="S7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T7" s="8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="U7" s="8">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="V7" s="8">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="W7" s="19">
+        <f>SUM(T7:V7)/3</f>
+        <v>0.44933333333333336</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>5000</v>
+      </c>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="21">
+        <f>SUM(Z7:AB7)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AI7" s="20">
+        <f>SUM(AF7:AH7)/3</f>
+        <v>0.26933333333333337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>100000</v>
       </c>
@@ -1812,9 +5152,54 @@
       <c r="E8" s="3">
         <v>100000</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="6">
+        <f>W10</f>
+        <v>78.025999999999996</v>
+      </c>
+      <c r="S8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T8" s="8">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="U8" s="8">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="V8" s="8">
+        <v>1.01</v>
+      </c>
+      <c r="W8" s="19">
+        <f>SUM(T8:V8)/3</f>
+        <v>1.0153333333333332</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>10000</v>
+      </c>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="21">
+        <f>SUM(Z8:AB8)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="AI8" s="20">
+        <f>SUM(AF8:AH8)/3</f>
+        <v>0.27266666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>200000</v>
       </c>
@@ -1827,153 +5212,3262 @@
       <c r="E9" s="3">
         <v>200000</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="6">
+        <f>W11</f>
+        <v>310.10766666666672</v>
+      </c>
+      <c r="S9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="T9" s="8">
+        <v>19.657</v>
+      </c>
+      <c r="U9" s="8">
+        <v>19.622</v>
+      </c>
+      <c r="V9" s="8">
+        <v>19.684999999999999</v>
+      </c>
+      <c r="W9" s="19">
+        <f>SUM(T9:V9)/3</f>
+        <v>19.654666666666667</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>50000</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="21">
+        <f>SUM(Z9:AB9)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="AI9" s="20">
+        <f>SUM(AF9:AH9)/3</f>
+        <v>0.28666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="6">
+        <f>W15</f>
+        <v>0.18800000000000003</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T10">
+        <f>60+18.194</f>
+        <v>78.194000000000003</v>
+      </c>
+      <c r="U10" s="8">
+        <f>60+17.129</f>
+        <v>77.129000000000005</v>
+      </c>
+      <c r="V10" s="8">
+        <f>60+18.755</f>
+        <v>78.754999999999995</v>
+      </c>
+      <c r="W10" s="19">
+        <f>SUM(T10:V10)/3</f>
+        <v>78.025999999999996</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="21">
+        <f>SUM(Z10:AB10)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>100000</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="AI10" s="20">
+        <f>SUM(AF10:AH10)/3</f>
+        <v>0.36366666666666664</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11" s="3">
         <v>500</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="6">
+        <f>W16</f>
+        <v>0.22866666666666666</v>
+      </c>
+      <c r="S11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="T11" s="8">
+        <f>300+10.177</f>
+        <v>310.17700000000002</v>
+      </c>
+      <c r="U11" s="8">
+        <v>310.41399999999999</v>
+      </c>
+      <c r="V11" s="8">
+        <v>309.73200000000003</v>
+      </c>
+      <c r="W11" s="19">
+        <f>SUM(T11:V11)/3</f>
+        <v>310.10766666666672</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>200000</v>
+      </c>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="21">
+        <f>SUM(Z11:AB11)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="AI11" s="20">
+        <f>SUM(AF11:AH11)/3</f>
+        <v>0.45633333333333331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="6">
+        <f>W17</f>
+        <v>0.24933333333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D13" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E13" s="3">
         <v>5000</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="6">
+        <f>W18</f>
+        <v>0.25033333333333335</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="Y13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="6">
+        <f>W19</f>
+        <v>0.28533333333333338</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="11">
+        <v>1</v>
+      </c>
+      <c r="U14" s="11">
+        <v>2</v>
+      </c>
+      <c r="V14" s="11">
+        <v>3</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" s="3">
         <v>50000</v>
       </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="6">
+        <f>W20</f>
+        <v>0.33533333333333332</v>
+      </c>
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="8">
+        <v>0.191</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="V15" s="8">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="W15" s="19">
+        <f>SUM(T15:V15)/3</f>
+        <v>0.18800000000000003</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="20">
+        <f>SUM(Z15:AB15)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E16" s="3">
         <v>100000</v>
       </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="6">
+        <f>W21</f>
+        <v>0.38066666666666671</v>
+      </c>
+      <c r="S16" s="3">
+        <v>500</v>
+      </c>
+      <c r="T16" s="8">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="V16" s="8">
+        <v>0.216</v>
+      </c>
+      <c r="W16" s="19">
+        <f>SUM(T16:V16)/3</f>
+        <v>0.22866666666666666</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="20">
+        <f>SUM(Z16:AB16)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3">
         <v>200000</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="6">
+        <f>W22</f>
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0.221</v>
+      </c>
+      <c r="W17" s="19">
+        <f>SUM(T17:V17)/3</f>
+        <v>0.24933333333333332</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="20">
+        <f>SUM(Z17:AB17)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="6">
+        <f>AC4</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="U18" s="8">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="W18" s="19">
+        <f>SUM(T18:V18)/3</f>
+        <v>0.25033333333333335</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="20">
+        <f>SUM(Z18:AB18)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="3">
         <v>500</v>
       </c>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="6">
+        <f>AC5</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0.248</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0.314</v>
+      </c>
+      <c r="W19" s="19">
+        <f t="shared" ref="W16:W22" si="0">SUM(T19:V19)/3</f>
+        <v>0.28533333333333338</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="20">
+        <f>SUM(Z19:AB19)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="6">
+        <f>AC6</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="W20" s="19">
+        <f>SUM(T20:V20)/3</f>
+        <v>0.33533333333333332</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="20">
+        <f>SUM(Z20:AB20)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
         <v>5000</v>
       </c>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F21" s="6">
+        <f>AC7</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="V21" s="8">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="W21" s="19">
+        <f>SUM(T21:V21)/3</f>
+        <v>0.38066666666666671</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="20">
+        <f>SUM(Z21:AB21)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="3">
         <v>10000</v>
       </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F22" s="6">
+        <f>AC8</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>200000</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="V22" s="8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="W22" s="19">
+        <f>SUM(T22:V22)/3</f>
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>200000</v>
+      </c>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="20">
+        <f>SUM(Z22:AB22)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" s="3">
         <v>50000</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="6">
+        <f>AC9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>100000</v>
       </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="6">
+        <f>AC10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:29" x14ac:dyDescent="0.2">
       <c r="D25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="3">
         <v>200000</v>
       </c>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6">
+        <f>AC11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="10">
+        <f>AC15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="10">
+        <f>AC16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="10">
+        <f>AC17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F29" s="10">
+        <f>AC18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="10">
+        <f>AC19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F31" s="10">
+        <f>AC20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F32" s="10">
+        <f>AC21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F33" s="10">
+        <f>AC22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100</v>
+      </c>
+      <c r="F34" s="6">
+        <f>AI4</f>
+        <v>0.22766666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="6">
+        <f>AI5</f>
+        <v>0.25366666666666665</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="6">
+        <f>AI6</f>
+        <v>0.25766666666666665</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F37" s="6">
+        <f>AI7</f>
+        <v>0.26933333333333337</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F38" s="6">
+        <f>AI8</f>
+        <v>0.27266666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F39" s="6">
+        <f>AI9</f>
+        <v>0.28666666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F40" s="6">
+        <f>AI10</f>
+        <v>0.36366666666666664</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F41" s="6">
+        <f>AI11</f>
+        <v>0.45633333333333331</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="Y13:AC13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEEA285-5ED0-E445-B9D2-D4749240A154}">
+  <dimension ref="A1:AI41"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB37" sqref="AB37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" customWidth="1"/>
+    <col min="20" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" customWidth="1"/>
+    <col min="24" max="24" width="2" customWidth="1"/>
+    <col min="26" max="28" width="7.1640625" customWidth="1"/>
+    <col min="30" max="30" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
+        <f>W4</f>
+        <v>0.21266666666666667</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="Y2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="17"/>
+      <c r="AE2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>500</v>
+      </c>
+      <c r="B3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>500</v>
+      </c>
+      <c r="F3" s="6">
+        <f>W5</f>
+        <v>0.223</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="11">
+        <v>1</v>
+      </c>
+      <c r="U3" s="11">
+        <v>2</v>
+      </c>
+      <c r="V3" s="11">
+        <v>3</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="6">
+        <f>W6</f>
+        <v>0.22933333333333331</v>
+      </c>
+      <c r="S4" s="12">
+        <v>100</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="W4" s="19">
+        <f>SUM(T4:V4)/3</f>
+        <v>0.21266666666666667</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="21">
+        <f>SUM(Z4:AB4)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>100</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AI4" s="20">
+        <f>SUM(AF4:AH4)/3</f>
+        <v>0.25933333333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>150</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="6">
+        <f>W7</f>
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="S5" s="3">
+        <v>500</v>
+      </c>
+      <c r="T5" s="13">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="V5" s="13">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="W5" s="19">
+        <f>SUM(T5:V5)/3</f>
+        <v>0.223</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>500</v>
+      </c>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="21">
+        <f>SUM(Z5:AB5)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0.254</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="AI5" s="20">
+        <f>SUM(AF5:AH5)/3</f>
+        <v>0.24233333333333332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="6">
+        <f>W8</f>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0.221</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="W6" s="19">
+        <f>SUM(T6:V6)/3</f>
+        <v>0.22933333333333331</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="21">
+        <f>SUM(Z6:AB6)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF6">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="AG6">
+        <v>0.248</v>
+      </c>
+      <c r="AH6">
+        <v>0.249</v>
+      </c>
+      <c r="AI6" s="20">
+        <f>SUM(AF6:AH6)/3</f>
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>250</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F7" s="6">
+        <f>W9</f>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="S7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T7" s="13">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0.27</v>
+      </c>
+      <c r="W7" s="19">
+        <f>SUM(T7:V7)/3</f>
+        <v>0.25833333333333336</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>5000</v>
+      </c>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="21">
+        <f>SUM(Z7:AB7)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>0.247</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0.249</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AI7" s="20">
+        <f>SUM(AF7:AH7)/3</f>
+        <v>0.24266666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>300</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="6">
+        <f>W10</f>
+        <v>0.34966666666666663</v>
+      </c>
+      <c r="S8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="W8" s="19">
+        <f>SUM(T8:V8)/3</f>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>10000</v>
+      </c>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="21">
+        <f>SUM(Z8:AB8)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="AG8" s="13">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="AH8" s="13">
+        <v>0.221</v>
+      </c>
+      <c r="AI8" s="20">
+        <f>SUM(AF8:AH8)/3</f>
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>200000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>350</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F9" s="6">
+        <f>W11</f>
+        <v>0.40133333333333338</v>
+      </c>
+      <c r="S9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0.313</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0.313</v>
+      </c>
+      <c r="W9" s="19">
+        <f>SUM(T9:V9)/3</f>
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>50000</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="21">
+        <f>SUM(Z9:AB9)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>0.307</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="AI9" s="20">
+        <f>SUM(AF9:AH9)/3</f>
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="6">
+        <f>W15</f>
+        <v>0.20133333333333336</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T10" s="22">
+        <v>0.379</v>
+      </c>
+      <c r="U10" s="8">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="V10" s="8">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="W10" s="19">
+        <f>SUM(T10:V10)/3</f>
+        <v>0.34966666666666663</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="21">
+        <f>SUM(Z10:AB10)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>100000</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>0.314</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>0.371</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>0.307</v>
+      </c>
+      <c r="AI10" s="20">
+        <f>SUM(AF10:AH10)/3</f>
+        <v>0.33066666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>500</v>
+      </c>
+      <c r="F11" s="6">
+        <f>W16</f>
+        <v>0.218</v>
+      </c>
+      <c r="S11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="U11" s="8">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="V11" s="8">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="W11" s="19">
+        <f>SUM(T11:V11)/3</f>
+        <v>0.40133333333333338</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>200000</v>
+      </c>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="21">
+        <f>SUM(Z11:AB11)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="AI11" s="20">
+        <f>SUM(AF11:AH11)/3</f>
+        <v>0.45966666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="6">
+        <f>W17</f>
+        <v>0.23033333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F13" s="6">
+        <f>W18</f>
+        <v>0.249</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="Y13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="6">
+        <f>W19</f>
+        <v>0.24866666666666667</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="11">
+        <v>1</v>
+      </c>
+      <c r="U14" s="11">
+        <v>2</v>
+      </c>
+      <c r="V14" s="11">
+        <v>3</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F15" s="6">
+        <f>W20</f>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="V15" s="8">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="W15" s="19">
+        <f>SUM(T15:V15)/3</f>
+        <v>0.20133333333333336</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="20">
+        <f>SUM(Z15:AB15)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="6">
+        <f>W21</f>
+        <v>0.42166666666666669</v>
+      </c>
+      <c r="S16" s="3">
+        <v>500</v>
+      </c>
+      <c r="T16" s="8">
+        <v>0.214</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="V16" s="8">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="W16" s="19">
+        <f>SUM(T16:V16)/3</f>
+        <v>0.218</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="20">
+        <f>SUM(Z16:AB16)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F17" s="6">
+        <f>W22</f>
+        <v>0.51833333333333331</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0.218</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="W17" s="19">
+        <f>SUM(T17:V17)/3</f>
+        <v>0.23033333333333331</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="20">
+        <f>SUM(Z17:AB17)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="6">
+        <f>AC4</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0.246</v>
+      </c>
+      <c r="U18" s="8">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0.222</v>
+      </c>
+      <c r="W18" s="19">
+        <f>SUM(T18:V18)/3</f>
+        <v>0.249</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="20">
+        <f>SUM(Z18:AB18)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>500</v>
+      </c>
+      <c r="F19" s="6">
+        <f>AC5</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0.245</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0.246</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0.255</v>
+      </c>
+      <c r="W19" s="19">
+        <f t="shared" ref="W19" si="0">SUM(T19:V19)/3</f>
+        <v>0.24866666666666667</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="20">
+        <f>SUM(Z19:AB19)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="6">
+        <f>AC6</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="W20" s="19">
+        <f>SUM(T20:V20)/3</f>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="20">
+        <f>SUM(Z20:AB20)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F21" s="6">
+        <f>AC7</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0.442</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0.42</v>
+      </c>
+      <c r="V21" s="8">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="W21" s="19">
+        <f>SUM(T21:V21)/3</f>
+        <v>0.42166666666666669</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="20">
+        <f>SUM(Z21:AB21)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="6">
+        <f>AC8</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>200000</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0.52</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="V22" s="8">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="W22" s="19">
+        <f>SUM(T22:V22)/3</f>
+        <v>0.51833333333333331</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>200000</v>
+      </c>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="20">
+        <f>SUM(Z22:AB22)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F23" s="6">
+        <f>AC9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F24" s="6">
+        <f>AC10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F25" s="6">
+        <f>AC11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="10">
+        <f>AC15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="10">
+        <f>AC16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="10">
+        <f>AC17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F29" s="10">
+        <f>AC18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="10">
+        <f>AC19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F31" s="10">
+        <f>AC20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F32" s="10">
+        <f>AC21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F33" s="10">
+        <f>AC22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100</v>
+      </c>
+      <c r="F34" s="6">
+        <f>AI4</f>
+        <v>0.25933333333333336</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="6">
+        <f>AI5</f>
+        <v>0.24233333333333332</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="6">
+        <f>AI6</f>
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F37" s="6">
+        <f>AI7</f>
+        <v>0.24266666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F38" s="6">
+        <f>AI8</f>
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F39" s="6">
+        <f>AI9</f>
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F40" s="6">
+        <f>AI10</f>
+        <v>0.33066666666666666</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F41" s="6">
+        <f>AI11</f>
+        <v>0.45966666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="Y13:AC13"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="Y2:AC2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA73E54F-DAC5-EF4F-AEA8-4DA253163F9F}">
+  <dimension ref="A1:AI41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="18" max="18" width="7.33203125" customWidth="1"/>
+    <col min="20" max="22" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" customWidth="1"/>
+    <col min="24" max="24" width="2" customWidth="1"/>
+    <col min="26" max="28" width="7.1640625" customWidth="1"/>
+    <col min="30" max="30" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>100</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
+        <f>W4</f>
+        <v>0.25433333333333336</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="Y2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="17"/>
+      <c r="AE2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>500</v>
+      </c>
+      <c r="B3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>500</v>
+      </c>
+      <c r="F3" s="6">
+        <f>W5</f>
+        <v>0.2283333333333333</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="11">
+        <v>1</v>
+      </c>
+      <c r="U3" s="11">
+        <v>2</v>
+      </c>
+      <c r="V3" s="11">
+        <v>3</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="11">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="11">
+        <v>3</v>
+      </c>
+      <c r="AI3" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="6">
+        <f>W6</f>
+        <v>0.24433333333333332</v>
+      </c>
+      <c r="S4" s="12">
+        <v>100</v>
+      </c>
+      <c r="T4" s="8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="U4" s="8">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="V4" s="8">
+        <v>0.247</v>
+      </c>
+      <c r="W4" s="19">
+        <f>SUM(T4:V4)/3</f>
+        <v>0.25433333333333336</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="21">
+        <f>SUM(Z4:AB4)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="12">
+        <v>100</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>0.19</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="AI4" s="20">
+        <f>SUM(AF4:AH4)/3</f>
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>150</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F5" s="6">
+        <f>W7</f>
+        <v>0.307</v>
+      </c>
+      <c r="S5" s="3">
+        <v>500</v>
+      </c>
+      <c r="T5" s="13">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="U5" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="V5" s="13">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="W5" s="19">
+        <f>SUM(T5:V5)/3</f>
+        <v>0.2283333333333333</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>500</v>
+      </c>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="21">
+        <f>SUM(Z5:AB5)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>0.215</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="AI5" s="20">
+        <f>SUM(AF5:AH5)/3</f>
+        <v>0.24466666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="6">
+        <f>W8</f>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T6" s="8">
+        <v>0.246</v>
+      </c>
+      <c r="U6" s="8">
+        <v>0.246</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="W6" s="19">
+        <f>SUM(T6:V6)/3</f>
+        <v>0.24433333333333332</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>1000</v>
+      </c>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="21">
+        <f>SUM(Z6:AB6)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF6">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>0.246</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AI6" s="20">
+        <f>SUM(AF6:AH6)/3</f>
+        <v>0.24033333333333332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="B7" s="2">
+        <v>250</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F7" s="6">
+        <f>W9</f>
+        <v>11.366</v>
+      </c>
+      <c r="S7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T7" s="13">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="U7" s="13">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="W7" s="19">
+        <f>SUM(T7:V7)/3</f>
+        <v>0.307</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>5000</v>
+      </c>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="21">
+        <f>SUM(Z7:AB7)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AF7" s="8">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AG7" s="8">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="AH7" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AI7" s="20">
+        <f>SUM(AF7:AH7)/3</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="B8" s="2">
+        <v>300</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="6">
+        <f>W10</f>
+        <v>42.679666666666662</v>
+      </c>
+      <c r="S8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T8" s="13">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="U8" s="13">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="W8" s="19">
+        <f>SUM(T8:V8)/3</f>
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>10000</v>
+      </c>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="21">
+        <f>SUM(Z8:AB8)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="AG8" s="8">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="AH8" s="8">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="AI8" s="20">
+        <f>SUM(AF8:AH8)/3</f>
+        <v>0.28099999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>200000</v>
+      </c>
+      <c r="B9" s="2">
+        <v>350</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F9" s="6">
+        <f>W11</f>
+        <v>160.24766666666665</v>
+      </c>
+      <c r="S9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="T9" s="8">
+        <v>11.414999999999999</v>
+      </c>
+      <c r="U9" s="8">
+        <v>11.327999999999999</v>
+      </c>
+      <c r="V9" s="8">
+        <v>11.355</v>
+      </c>
+      <c r="W9" s="19">
+        <f>SUM(T9:V9)/3</f>
+        <v>11.366</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>50000</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="21">
+        <f>SUM(Z9:AB9)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>50000</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AI9" s="20">
+        <f>SUM(AF9:AH9)/3</f>
+        <v>0.33733333333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="6">
+        <f>W15</f>
+        <v>0.20633333333333334</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T10" s="22">
+        <v>42.923999999999999</v>
+      </c>
+      <c r="U10" s="8">
+        <v>41.832000000000001</v>
+      </c>
+      <c r="V10" s="8">
+        <v>43.283000000000001</v>
+      </c>
+      <c r="W10" s="19">
+        <f>SUM(T10:V10)/3</f>
+        <v>42.679666666666662</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>100000</v>
+      </c>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="21">
+        <f>SUM(Z10:AB10)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>100000</v>
+      </c>
+      <c r="AF10" s="8">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="AG10" s="8">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="AH10" s="8">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="AI10" s="20">
+        <f>SUM(AF10:AH10)/3</f>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
+        <v>500</v>
+      </c>
+      <c r="F11" s="6">
+        <f>W16</f>
+        <v>0.23633333333333331</v>
+      </c>
+      <c r="S11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="T11" s="8">
+        <f>120+40.292</f>
+        <v>160.292</v>
+      </c>
+      <c r="U11" s="8">
+        <f>120+40.782</f>
+        <v>160.78199999999998</v>
+      </c>
+      <c r="V11" s="8">
+        <f>120+39.669</f>
+        <v>159.66899999999998</v>
+      </c>
+      <c r="W11" s="19">
+        <f>SUM(T11:V11)/3</f>
+        <v>160.24766666666665</v>
+      </c>
+      <c r="Y11" s="7">
+        <v>200000</v>
+      </c>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="21">
+        <f>SUM(Z11:AB11)/3</f>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>200000</v>
+      </c>
+      <c r="AF11" s="8">
+        <v>0.623</v>
+      </c>
+      <c r="AG11" s="8">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="AH11" s="8">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="AI11" s="20">
+        <f>SUM(AF11:AH11)/3</f>
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="6">
+        <f>W17</f>
+        <v>0.249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F13" s="6">
+        <f>W18</f>
+        <v>0.253</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="Y13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="6">
+        <f>W19</f>
+        <v>0.26266666666666666</v>
+      </c>
+      <c r="S14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="11">
+        <v>1</v>
+      </c>
+      <c r="U14" s="11">
+        <v>2</v>
+      </c>
+      <c r="V14" s="11">
+        <v>3</v>
+      </c>
+      <c r="W14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="11">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F15" s="6">
+        <f>W20</f>
+        <v>0.29533333333333339</v>
+      </c>
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="V15" s="8">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="W15" s="19">
+        <f>SUM(T15:V15)/3</f>
+        <v>0.20633333333333334</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="20">
+        <f>SUM(Z15:AB15)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="6">
+        <f>W21</f>
+        <v>0.40199999999999997</v>
+      </c>
+      <c r="S16" s="3">
+        <v>500</v>
+      </c>
+      <c r="T16" s="8">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="U16" s="8">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="V16" s="8">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="W16" s="19">
+        <f>SUM(T16:V16)/3</f>
+        <v>0.23633333333333331</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="20">
+        <f>SUM(Z16:AB16)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F17" s="6">
+        <f>W22</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="U17" s="8">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="V17" s="8">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="W17" s="19">
+        <f>SUM(T17:V17)/3</f>
+        <v>0.249</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="20">
+        <f>SUM(Z17:AB17)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="6">
+        <f>AC4</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="U18" s="8">
+        <v>0.219</v>
+      </c>
+      <c r="V18" s="8">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="W18" s="19">
+        <f>SUM(T18:V18)/3</f>
+        <v>0.253</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="20">
+        <f>SUM(Z18:AB18)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>500</v>
+      </c>
+      <c r="F19" s="6">
+        <f>AC5</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="T19" s="8">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="U19" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="V19" s="8">
+        <v>0.254</v>
+      </c>
+      <c r="W19" s="19">
+        <f t="shared" ref="W19" si="0">SUM(T19:V19)/3</f>
+        <v>0.26266666666666666</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>10000</v>
+      </c>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="20">
+        <f>SUM(Z19:AB19)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="6">
+        <f>AC6</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="T20" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="U20" s="8">
+        <v>0.318</v>
+      </c>
+      <c r="V20" s="8">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="W20" s="19">
+        <f>SUM(T20:V20)/3</f>
+        <v>0.29533333333333339</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>50000</v>
+      </c>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="20">
+        <f>SUM(Z20:AB20)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F21" s="6">
+        <f>AC7</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="V21" s="8">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="W21" s="19">
+        <f>SUM(T21:V21)/3</f>
+        <v>0.40199999999999997</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>100000</v>
+      </c>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="20">
+        <f>SUM(Z21:AB21)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F22" s="6">
+        <f>AC8</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>200000</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="V22" s="8">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="W22" s="19">
+        <f>SUM(T22:V22)/3</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>200000</v>
+      </c>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="20">
+        <f>SUM(Z22:AB22)/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F23" s="6">
+        <f>AC9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F24" s="6">
+        <f>AC10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F25" s="6">
+        <f>AC11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="10">
+        <f>AC15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>500</v>
+      </c>
+      <c r="F27" s="10">
+        <f>AC16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="10">
+        <f>AC17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F29" s="10">
+        <f>AC18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F30" s="10">
+        <f>AC19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F31" s="10">
+        <f>AC20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:29" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F32" s="10">
+        <f>AC21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F33" s="10">
+        <f>AC22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="3">
+        <v>100</v>
+      </c>
+      <c r="F34" s="6">
+        <f>AI4</f>
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3">
+        <v>500</v>
+      </c>
+      <c r="F35" s="6">
+        <f>AI5</f>
+        <v>0.24466666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="6">
+        <f>AI6</f>
+        <v>0.24033333333333332</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F37" s="6">
+        <f>AI7</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F38" s="6">
+        <f>AI8</f>
+        <v>0.28099999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3">
+        <v>50000</v>
+      </c>
+      <c r="F39" s="6">
+        <f>AI9</f>
+        <v>0.33733333333333332</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F40" s="6">
+        <f>AI10</f>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="3">
+        <v>200000</v>
+      </c>
+      <c r="F41" s="6">
+        <f>AI11</f>
+        <v>0.59799999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="AE2:AI2"/>
+    <mergeCell ref="S13:W13"/>
+    <mergeCell ref="Y13:AC13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
